--- a/7/1/1/4/2/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/4/2/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1485,13 +1485,13 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>107383</v>
+        <v>107370</v>
       </c>
       <c r="C14">
         <v>79429</v>
       </c>
       <c r="D14">
-        <v>65618</v>
+        <v>65617</v>
       </c>
       <c r="E14">
         <v>4700</v>
@@ -1503,7 +1503,7 @@
         <v>33491</v>
       </c>
       <c r="H14">
-        <v>13776</v>
+        <v>13777</v>
       </c>
       <c r="I14">
         <v>26102</v>
@@ -1515,19 +1515,19 @@
         <v>8557</v>
       </c>
       <c r="L14">
-        <v>41464</v>
+        <v>41467</v>
       </c>
       <c r="M14">
-        <v>35516</v>
+        <v>35518</v>
       </c>
       <c r="N14">
         <v>2267</v>
       </c>
       <c r="O14">
-        <v>20057</v>
+        <v>20060</v>
       </c>
       <c r="P14">
-        <v>12902</v>
+        <v>12901</v>
       </c>
       <c r="Q14">
         <v>6035</v>
@@ -1551,7 +1551,7 @@
         <v>5035</v>
       </c>
       <c r="X14">
-        <v>113747</v>
+        <v>113737</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1559,13 +1559,13 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>100416</v>
+        <v>100404</v>
       </c>
       <c r="C15">
         <v>79816</v>
       </c>
       <c r="D15">
-        <v>64984</v>
+        <v>64983</v>
       </c>
       <c r="E15">
         <v>3918</v>
@@ -1589,19 +1589,19 @@
         <v>6547</v>
       </c>
       <c r="L15">
-        <v>39713</v>
+        <v>39716</v>
       </c>
       <c r="M15">
-        <v>34473</v>
+        <v>34475</v>
       </c>
       <c r="N15">
         <v>2272</v>
       </c>
       <c r="O15">
-        <v>20280</v>
+        <v>20283</v>
       </c>
       <c r="P15">
-        <v>11796</v>
+        <v>11795</v>
       </c>
       <c r="Q15">
         <v>5357</v>
@@ -1625,7 +1625,7 @@
         <v>4763</v>
       </c>
       <c r="X15">
-        <v>111995</v>
+        <v>111987</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1633,13 +1633,13 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>114007</v>
+        <v>113993</v>
       </c>
       <c r="C16">
         <v>87351</v>
       </c>
       <c r="D16">
-        <v>71888</v>
+        <v>71887</v>
       </c>
       <c r="E16">
         <v>5440</v>
@@ -1663,16 +1663,16 @@
         <v>8697</v>
       </c>
       <c r="L16">
-        <v>40647</v>
+        <v>40650</v>
       </c>
       <c r="M16">
-        <v>34374</v>
+        <v>34377</v>
       </c>
       <c r="N16">
         <v>2328</v>
       </c>
       <c r="O16">
-        <v>20475</v>
+        <v>20478</v>
       </c>
       <c r="P16">
         <v>11469</v>
@@ -1699,7 +1699,7 @@
         <v>5257</v>
       </c>
       <c r="X16">
-        <v>118565</v>
+        <v>118555</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1707,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>124704</v>
+        <v>124691</v>
       </c>
       <c r="C17">
         <v>93713</v>
@@ -1719,7 +1719,7 @@
         <v>6476</v>
       </c>
       <c r="F17">
-        <v>32349</v>
+        <v>32348</v>
       </c>
       <c r="G17">
         <v>39070</v>
@@ -1737,16 +1737,16 @@
         <v>10942</v>
       </c>
       <c r="L17">
-        <v>42840</v>
+        <v>42843</v>
       </c>
       <c r="M17">
-        <v>35773</v>
+        <v>35776</v>
       </c>
       <c r="N17">
         <v>2613</v>
       </c>
       <c r="O17">
-        <v>20130</v>
+        <v>20133</v>
       </c>
       <c r="P17">
         <v>13071</v>
@@ -1773,7 +1773,7 @@
         <v>6071</v>
       </c>
       <c r="X17">
-        <v>125702</v>
+        <v>125692</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1781,19 +1781,19 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>133900</v>
+        <v>133886</v>
       </c>
       <c r="C18">
-        <v>99030</v>
+        <v>99029</v>
       </c>
       <c r="D18">
-        <v>82571</v>
+        <v>82570</v>
       </c>
       <c r="E18">
         <v>7267</v>
       </c>
       <c r="F18">
-        <v>34177</v>
+        <v>34176</v>
       </c>
       <c r="G18">
         <v>41141</v>
@@ -1811,16 +1811,16 @@
         <v>12685</v>
       </c>
       <c r="L18">
-        <v>42920</v>
+        <v>42923</v>
       </c>
       <c r="M18">
-        <v>36447</v>
+        <v>36450</v>
       </c>
       <c r="N18">
         <v>2583</v>
       </c>
       <c r="O18">
-        <v>20572</v>
+        <v>20575</v>
       </c>
       <c r="P18">
         <v>13316</v>
@@ -1847,7 +1847,7 @@
         <v>5750</v>
       </c>
       <c r="X18">
-        <v>132524</v>
+        <v>132514</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1855,7 +1855,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>138732</v>
+        <v>138723</v>
       </c>
       <c r="C19">
         <v>103328</v>
@@ -1885,10 +1885,10 @@
         <v>12790</v>
       </c>
       <c r="L19">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="M19">
-        <v>38003</v>
+        <v>38001</v>
       </c>
       <c r="N19">
         <v>2751</v>
@@ -1897,7 +1897,7 @@
         <v>21680</v>
       </c>
       <c r="P19">
-        <v>13571</v>
+        <v>13570</v>
       </c>
       <c r="Q19">
         <v>6423</v>
@@ -1906,7 +1906,7 @@
         <v>45218</v>
       </c>
       <c r="S19">
-        <v>39184</v>
+        <v>39185</v>
       </c>
       <c r="T19">
         <v>610</v>
@@ -1915,13 +1915,13 @@
         <v>4779</v>
       </c>
       <c r="V19">
-        <v>33795</v>
+        <v>33796</v>
       </c>
       <c r="W19">
         <v>6034</v>
       </c>
       <c r="X19">
-        <v>137939</v>
+        <v>137929</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1929,7 +1929,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>138034</v>
+        <v>138023</v>
       </c>
       <c r="C20">
         <v>106318</v>
@@ -1950,25 +1950,25 @@
         <v>17621</v>
       </c>
       <c r="I20">
-        <v>32566</v>
+        <v>32567</v>
       </c>
       <c r="J20">
-        <v>20885</v>
+        <v>20886</v>
       </c>
       <c r="K20">
-        <v>11678</v>
+        <v>11679</v>
       </c>
       <c r="L20">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="M20">
-        <v>38617</v>
+        <v>38616</v>
       </c>
       <c r="N20">
         <v>2530</v>
       </c>
       <c r="O20">
-        <v>22043</v>
+        <v>22042</v>
       </c>
       <c r="P20">
         <v>14045</v>
@@ -1995,7 +1995,7 @@
         <v>5572</v>
       </c>
       <c r="X20">
-        <v>140318</v>
+        <v>140306</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2003,13 +2003,13 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>141480</v>
+        <v>141466</v>
       </c>
       <c r="C21">
-        <v>109025</v>
+        <v>109024</v>
       </c>
       <c r="D21">
-        <v>90576</v>
+        <v>90575</v>
       </c>
       <c r="E21">
         <v>7734</v>
@@ -2027,16 +2027,16 @@
         <v>32449</v>
       </c>
       <c r="J21">
-        <v>21498</v>
+        <v>21499</v>
       </c>
       <c r="K21">
         <v>10981</v>
       </c>
       <c r="L21">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="M21">
-        <v>38089</v>
+        <v>38088</v>
       </c>
       <c r="N21">
         <v>2642</v>
@@ -2051,10 +2051,10 @@
         <v>5652</v>
       </c>
       <c r="R21">
-        <v>41759</v>
+        <v>41757</v>
       </c>
       <c r="S21">
-        <v>36400</v>
+        <v>36398</v>
       </c>
       <c r="T21">
         <v>623</v>
@@ -2063,13 +2063,13 @@
         <v>4425</v>
       </c>
       <c r="V21">
-        <v>31341</v>
+        <v>31339</v>
       </c>
       <c r="W21">
         <v>5360</v>
       </c>
       <c r="X21">
-        <v>143488</v>
+        <v>143475</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2077,10 +2077,10 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>143964</v>
+        <v>143950</v>
       </c>
       <c r="C22">
-        <v>112803</v>
+        <v>112802</v>
       </c>
       <c r="D22">
         <v>93029</v>
@@ -2104,22 +2104,22 @@
         <v>21286</v>
       </c>
       <c r="K22">
-        <v>10771</v>
+        <v>10770</v>
       </c>
       <c r="L22">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="M22">
-        <v>38221</v>
+        <v>38220</v>
       </c>
       <c r="N22">
         <v>3045</v>
       </c>
       <c r="O22">
-        <v>21190</v>
+        <v>21191</v>
       </c>
       <c r="P22">
-        <v>13822</v>
+        <v>13821</v>
       </c>
       <c r="Q22">
         <v>5715</v>
@@ -2143,7 +2143,7 @@
         <v>5342</v>
       </c>
       <c r="X22">
-        <v>145816</v>
+        <v>145801</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2151,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>148474</v>
+        <v>148461</v>
       </c>
       <c r="C23">
         <v>116879</v>
@@ -2163,7 +2163,7 @@
         <v>9041</v>
       </c>
       <c r="F23">
-        <v>40007</v>
+        <v>40008</v>
       </c>
       <c r="G23">
         <v>47149</v>
@@ -2172,34 +2172,34 @@
         <v>20674</v>
       </c>
       <c r="I23">
-        <v>31035</v>
+        <v>31034</v>
       </c>
       <c r="J23">
-        <v>20107</v>
+        <v>20108</v>
       </c>
       <c r="K23">
-        <v>10920</v>
+        <v>10919</v>
       </c>
       <c r="L23">
-        <v>43260</v>
+        <v>43259</v>
       </c>
       <c r="M23">
-        <v>37472</v>
+        <v>37471</v>
       </c>
       <c r="N23">
         <v>2875</v>
       </c>
       <c r="O23">
-        <v>20514</v>
+        <v>20513</v>
       </c>
       <c r="P23">
-        <v>13892</v>
+        <v>13891</v>
       </c>
       <c r="Q23">
         <v>5768</v>
       </c>
       <c r="R23">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="S23">
         <v>38624</v>
@@ -2217,7 +2217,7 @@
         <v>5482</v>
       </c>
       <c r="X23">
-        <v>147867</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2225,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>155115</v>
+        <v>155105</v>
       </c>
       <c r="C24">
         <v>121246</v>
@@ -2246,37 +2246,37 @@
         <v>21367</v>
       </c>
       <c r="I24">
-        <v>32601</v>
+        <v>32602</v>
       </c>
       <c r="J24">
-        <v>20699</v>
+        <v>20701</v>
       </c>
       <c r="K24">
-        <v>11883</v>
+        <v>11882</v>
       </c>
       <c r="L24">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="M24">
-        <v>39831</v>
+        <v>39828</v>
       </c>
       <c r="N24">
         <v>3409</v>
       </c>
       <c r="O24">
-        <v>21579</v>
+        <v>21577</v>
       </c>
       <c r="P24">
-        <v>14604</v>
+        <v>14603</v>
       </c>
       <c r="Q24">
         <v>5749</v>
       </c>
       <c r="R24">
-        <v>47649</v>
+        <v>47651</v>
       </c>
       <c r="S24">
-        <v>41919</v>
+        <v>41922</v>
       </c>
       <c r="T24">
         <v>826</v>
@@ -2285,13 +2285,13 @@
         <v>4713</v>
       </c>
       <c r="V24">
-        <v>36242</v>
+        <v>36245</v>
       </c>
       <c r="W24">
         <v>5776</v>
       </c>
       <c r="X24">
-        <v>153434</v>
+        <v>153419</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2299,37 +2299,37 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>156537</v>
+        <v>156526</v>
       </c>
       <c r="C25">
-        <v>122328</v>
+        <v>122331</v>
       </c>
       <c r="D25">
-        <v>100953</v>
+        <v>100952</v>
       </c>
       <c r="E25">
         <v>9258</v>
       </c>
       <c r="F25">
-        <v>41209</v>
+        <v>41208</v>
       </c>
       <c r="G25">
         <v>50458</v>
       </c>
       <c r="H25">
-        <v>21374</v>
+        <v>21378</v>
       </c>
       <c r="I25">
-        <v>34055</v>
+        <v>34056</v>
       </c>
       <c r="J25">
-        <v>21853</v>
+        <v>21855</v>
       </c>
       <c r="K25">
-        <v>12184</v>
+        <v>12183</v>
       </c>
       <c r="L25">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="M25">
         <v>38880</v>
@@ -2341,16 +2341,16 @@
         <v>20996</v>
       </c>
       <c r="P25">
-        <v>14165</v>
+        <v>14164</v>
       </c>
       <c r="Q25">
         <v>5539</v>
       </c>
       <c r="R25">
-        <v>46522</v>
+        <v>46524</v>
       </c>
       <c r="S25">
-        <v>40877</v>
+        <v>40880</v>
       </c>
       <c r="T25">
         <v>863</v>
@@ -2359,13 +2359,13 @@
         <v>4878</v>
       </c>
       <c r="V25">
-        <v>35056</v>
+        <v>35058</v>
       </c>
       <c r="W25">
         <v>5686</v>
       </c>
       <c r="X25">
-        <v>154780</v>
+        <v>154766</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2373,40 +2373,40 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>142003</v>
+        <v>141995</v>
       </c>
       <c r="C26">
-        <v>113885</v>
+        <v>113899</v>
       </c>
       <c r="D26">
-        <v>93243</v>
+        <v>93245</v>
       </c>
       <c r="E26">
         <v>9439</v>
       </c>
       <c r="F26">
-        <v>40149</v>
+        <v>40151</v>
       </c>
       <c r="G26">
         <v>43695</v>
       </c>
       <c r="H26">
-        <v>20578</v>
+        <v>20589</v>
       </c>
       <c r="I26">
-        <v>30084</v>
+        <v>30081</v>
       </c>
       <c r="J26">
-        <v>19348</v>
+        <v>19346</v>
       </c>
       <c r="K26">
         <v>10721</v>
       </c>
       <c r="L26">
-        <v>43969</v>
+        <v>43959</v>
       </c>
       <c r="M26">
-        <v>40061</v>
+        <v>40051</v>
       </c>
       <c r="N26">
         <v>3379</v>
@@ -2415,16 +2415,16 @@
         <v>21657</v>
       </c>
       <c r="P26">
-        <v>14796</v>
+        <v>14787</v>
       </c>
       <c r="Q26">
         <v>3831</v>
       </c>
       <c r="R26">
-        <v>40576</v>
+        <v>40578</v>
       </c>
       <c r="S26">
-        <v>36686</v>
+        <v>36688</v>
       </c>
       <c r="T26">
         <v>1068</v>
@@ -2433,13 +2433,13 @@
         <v>4427</v>
       </c>
       <c r="V26">
-        <v>31159</v>
+        <v>31161</v>
       </c>
       <c r="W26">
         <v>4047</v>
       </c>
       <c r="X26">
-        <v>145517</v>
+        <v>145498</v>
       </c>
     </row>
   </sheetData>
